--- a/Assets/_OriginalData/Excel/Define/CommonDefine.xlsx
+++ b/Assets/_OriginalData/Excel/Define/CommonDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>普通关卡开始ID</t>
   </si>
@@ -56,6 +56,12 @@
     <t>loopStartLevelID</t>
   </si>
   <si>
+    <t>商店免费金币数</t>
+  </si>
+  <si>
+    <t>shopFreeCoinCount</t>
+  </si>
+  <si>
     <t>商店免费奖励次数</t>
   </si>
   <si>
@@ -74,13 +80,19 @@
     <t>体力满值</t>
   </si>
   <si>
-    <t>healthFunllCount</t>
+    <t>energyFunllCount</t>
   </si>
   <si>
     <t>体力恢复间隔(分钟)</t>
   </si>
   <si>
-    <t>healthHarvestInterval</t>
+    <t>energyHarvestInterval</t>
+  </si>
+  <si>
+    <t>体力金币购买数</t>
+  </si>
+  <si>
+    <t>energyCoinCount</t>
   </si>
 </sst>
 </file>
@@ -93,7 +105,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +126,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -265,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,12 +417,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,12 +435,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,12 +448,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,136 +603,136 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -754,7 +741,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1104,10 +1091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1185,10 +1172,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1199,24 +1186,24 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>1440</v>
-      </c>
-      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:4">
@@ -1230,21 +1217,45 @@
         <v>2</v>
       </c>
       <c r="D8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="4"/>
+    <row r="10" ht="16.5" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4"/>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="2:3">
+    <row r="12" spans="2:2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="16" spans="2:2">
       <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="5"/>
@@ -1274,8 +1285,9 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:3">
       <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="5"/>
@@ -1366,6 +1378,9 @@
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_OriginalData/Excel/Define/CommonDefine.xlsx
+++ b/Assets/_OriginalData/Excel/Define/CommonDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24030" windowHeight="10440"/>
+    <workbookView windowWidth="26145" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>普通关卡开始ID</t>
   </si>
@@ -74,9 +74,6 @@
     <t>shopFreeTimeInterval</t>
   </si>
   <si>
-    <t>24小时</t>
-  </si>
-  <si>
     <t>体力满值</t>
   </si>
   <si>
@@ -89,7 +86,7 @@
     <t>energyHarvestInterval</t>
   </si>
   <si>
-    <t>体力金币购买数</t>
+    <t>体力购买花费金币数</t>
   </si>
   <si>
     <t>energyCoinCount</t>
@@ -1091,13 +1088,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="26.3333333333333" customWidth="1"/>
@@ -1189,7 +1186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" ht="16.5" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1202,16 +1199,13 @@
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="8" ht="16.5" spans="1:4">
       <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
@@ -1222,10 +1216,10 @@
     </row>
     <row r="9" ht="16.5" spans="1:4">
       <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
@@ -1236,10 +1230,10 @@
     </row>
     <row r="10" ht="16.5" spans="1:4">
       <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>

--- a/Assets/_OriginalData/Excel/Define/CommonDefine.xlsx
+++ b/Assets/_OriginalData/Excel/Define/CommonDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>普通关卡开始ID</t>
   </si>
@@ -90,6 +90,27 @@
   </si>
   <si>
     <t>energyCoinCount</t>
+  </si>
+  <si>
+    <t>小游戏显示顺序</t>
+  </si>
+  <si>
+    <t>miniShowSort</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>103&amp;101&amp;105&amp;102&amp;104</t>
+  </si>
+  <si>
+    <t>小游戏状态（0无，1火，2新）</t>
+  </si>
+  <si>
+    <t>miniShowState</t>
+  </si>
+  <si>
+    <t>1&amp;1&amp;2&amp;0&amp;0</t>
   </si>
 </sst>
 </file>
@@ -102,7 +123,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,12 +138,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -267,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +304,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,133 +621,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -736,7 +757,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
   </cellXfs>
@@ -1091,12 +1112,12 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="27.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="26.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
@@ -1242,11 +1263,33 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="4"/>
+    <row r="11" ht="16.5" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="5"/>
